--- a/documents/teacher/Eng.xlsx
+++ b/documents/teacher/Eng.xlsx
@@ -356,44 +356,44 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -415,17 +415,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -442,7 +442,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -452,19 +452,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -491,12 +491,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">

--- a/documents/teacher/Eng.xlsx
+++ b/documents/teacher/Eng.xlsx
@@ -356,17 +356,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -388,7 +388,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -415,7 +415,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -425,12 +425,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -592,7 +592,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>

--- a/documents/teacher/Eng.xlsx
+++ b/documents/teacher/Eng.xlsx
@@ -356,27 +356,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -388,7 +388,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -415,12 +415,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -442,49 +442,49 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -506,12 +506,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -565,14 +565,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">

--- a/documents/teacher/Eng.xlsx
+++ b/documents/teacher/Eng.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -361,7 +361,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -376,14 +376,14 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -393,7 +393,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -403,14 +403,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -420,12 +420,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -442,7 +442,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -452,7 +452,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -469,22 +469,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -511,7 +511,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -533,7 +533,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -572,7 +572,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -592,7 +592,34 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
